--- a/TestCases/Login&SignUp_TestCases.xlsx
+++ b/TestCases/Login&SignUp_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6688692-FB6F-40BF-A9B6-6B9627FB6521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2710BE4A-EFE5-4EE0-8D80-55DB1490F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B383490C-AA1E-4D53-84EB-685BE61CD96B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Status(pass/Fail)</t>
   </si>
@@ -54,6 +54,70 @@
   </si>
   <si>
     <t>Tes caset ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is logged in and  redirected to the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid login
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_opensooq
+</t>
+  </si>
+  <si>
+    <t>2_opensooq</t>
+  </si>
+  <si>
+    <t>Invalid mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message " mbile number is incorrect" </t>
+  </si>
+  <si>
+    <t>3_opensooq</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter invalid mobile number 
+2. click next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter valid mobile number and password
+2. click next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter valid mobile number and invalid password
+2.  click next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message " The password and/or mobile number are not correct " </t>
+  </si>
+  <si>
+    <t>4_opensooq</t>
+  </si>
+  <si>
+    <t>mobile number format validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter invalid mobile number format eg: less than 10 digites, or contains string
+2. click next  </t>
+  </si>
+  <si>
+    <t>Error message "invalid mobile number"</t>
+  </si>
+  <si>
+    <t>5_opensooq</t>
+  </si>
+  <si>
+    <t>valid mobile number in deffirent formats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter valid mobile number in another formats eg: +962, 07.., 79(without 0) then enter a valid password 
+2. click next </t>
   </si>
 </sst>
 </file>
@@ -89,8 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,18 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F3C56E-FA07-410C-B60A-95D9A12AFDD2}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
@@ -461,6 +528,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
